--- a/Multibeam_metadata.xlsx
+++ b/Multibeam_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,6869 +360,7234 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Site</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Subsite</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Cruise</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Resolution</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Projection_Description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Projection</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ellipsoid</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Server_Location</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Filename</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Vessel</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Sonar</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Frequency_kHz</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>2015_12A_BEL_EL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E2">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>WGS 84 / UTM zone 17N</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL1/Bathymetry/EL1_Bathymetry_CUBE_2m.tiff</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>EL1_Bathymetry_CUBE_2m.tiff</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>400</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>2015_12A_BEL_EL</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>WGS 84 / UTM zone 17N</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL1/Backscatter/EL1_1mTimeSeriesBS_TrimmedtoMosaic_AVG800.tiff</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>EL1_1mTimeSeriesBS_TrimmedtoMosaic_AVG800.tiff</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>400</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Gap</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>2016_04_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E4">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>EPSG:32616</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/MS_Gap/Bathymetry/Madison_Swanson_Gap_2m_Swath_Bathy.bag</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Madison_Swanson_Gap_2m_Swath_Bathy.bag</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>400</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Gap</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>2016_04_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.8129610967556675</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>WGS 84 / UTM zone 16N</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/MS_Gap/Backscatter/WBII2016_04_MadisonSwansonGap_Snippetgeotiff.tif</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>WBII2016_04_MadisonSwansonGap_Snippetgeotiff.tif</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>400</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>2016_05_BEL_SWFMG</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F6">
         <v>2.5</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>EPSG:32616</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG1/Bathymetry/CUBE/SWFMGMay2016_2.5mCube.bag</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>SWFMGMay2016_2.5mCube.bag</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>400</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>2016_05_BEL_SWFMG</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>WGS 84 / UTM zone 16N</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG1/Backscatter/SWFMGMay2016_1mBackScatter.tiff</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>SWFMGMay2016_1mBackScatter.tiff</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>400</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>2016_06_WB2_SWFMG</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>WGS 84 / UTM zone 16N</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG2/Bathymetry/Swath_Angle/SWFMG2June2016_2m.tiff</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>SWFMG2June2016_2m.tiff</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>400</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>2016_06_WB2_SWFMG</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>WGS 84 / UTM zone 16N</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG2/Backscatter/SWFMG2June2016_1mBackScatter_cropped.tif</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>SWFMG2June2016_1mBackScatter_cropped.tif</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>400</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>2016_07_BEL_SWFMG</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>EPSG:32617</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG3/Bathymetry/CUBE/SWFMG3July2016Cube_2m.bag</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>SWFMG3July2016Cube_2m.bag</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>400</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>2016_07_BEL_SWFMG</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>WGS 84 / UTM zone 17N</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG3/Backscatter/SWFMG3July2016_1mBS.tiff</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>SWFMG3July2016_1mBS.tiff</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>400</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>2016_09_BEL_SWFMG</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>EPSG:32617</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG4/Bathymetry/CUBE/SWFMG4Cube2m.bag</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>SWFMG4Cube2m.bag</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>400</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>2016_09_BEL_SWFMG</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>WGS 84 / UTM zone 17N</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG4/Backscatter/SWFMG4BeamAverage1m.tiff</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>SWFMG4BeamAverage1m.tiff</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>400</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>EFMG</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>2017_04_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>WGS 84 / UTM zone 16N</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/EFMG/EFMG1/Bathymetry/EastFMG1mswathangleApril2017.bag</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>EastFMG1mswathangleApril2017.bag</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>EFMG</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>2017_04_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>2017_04_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E16">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>WGS 84 / UTM zone 16N</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL2/Bathymetry/EL2_AGU.bag</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>EL2_AGU.bag</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7126</t>
         </is>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>400</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>2017_04_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7127</t>
         </is>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>400</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>2017_07A_BEL_SWFMG</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E18">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F18">
         <v>4</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>WGS 84 / UTM zone 16N</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG5/Bathymetry/SWFMG5_4mCUBEBathy.bag</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>SWFMG5_4mCUBEBathy.bag</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>400</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>2017_07A_BEL_SWFMG</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>400</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>2017_07C_BEL_SWFMG</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F20">
         <v>4</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>EPSG:32616</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG6_WFMG1/Bathymetry/Cube/WFMG_4mCUBEBathy.bag</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>WFMG_4mCUBEBathy.bag</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>400</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>2017_07C_BEL_SWFMG</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>400</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>2017_10_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F22">
         <v>4</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>WGS 84 / UTM zone 16N</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL3/Bathymetry/EL3_4mSwathBathy.bag</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>EL3_4mSwathBathy.bag</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7126</t>
         </is>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>400</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>2017_10_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7127</t>
         </is>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>400</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>7AB</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>2017_10_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F24">
         <v>4</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>WGS 84 / UTM zone 16N</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG7_WFMG2/Bathymetry/WFMG2_4mSwathBathy.bag</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>WFMG2_4mSwathBathy.bag</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>400</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>7AB</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>2017_10_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>400</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>2018_04C_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F26">
         <v>2</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>WGS 84 / World Mercator</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>merc</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL4/Bathymetry/201804Elbow2mSA.bag</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>201804Elbow2mSA.bag</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>400</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>2018_04C_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>WGS 84 / World Mercator</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>merc</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL4/Backscatter/EL4BS1m.tiff</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>EL4BS1m.tiff</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>400</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>1807</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>2018_07B_HOG_SWFMG</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F28">
         <v>2</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>1_Cruises/2018_07B_HOG_SWFMG/QimeraProject/2018-07B-HOG/Export/SWFMG1807_2m_Raw.bag</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>SWFMG1807_2m_Raw.bag</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>1807</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>2018_07B_HOG_SWFMG</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>1808</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>2018_08_HOG_SWFMG</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>1_Cruises/2018_08_HOG_SWFMG/QimeraProjects/2018-08-HOG/Export/1808-SWFMG_2m_Raw.bag</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>1808-SWFMG_2m_Raw.bag</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>1808</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>2018_08_HOG_SWFMG</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Mustache_Ext</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>2018_08_HOG_SWFMG</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>1_Cruises/2018_08_HOG_SWFMG/QimeraProjects/2018-08-HOG/Export/Mustache_Ext.bag</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>Mustache_Ext.bag</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Mustache_Ext</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>2018_08_HOG_SWFMG</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>2018_09_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F34">
         <v>2</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL5/Bathymetry/1809_EL5_2mBathy_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>1809_EL5_2mBathy_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>400</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>2018_09_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>400</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>8A</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>2018_09_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F36">
         <v>2</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G36" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG8_WFMG3/Bathymetry/1809_WFMG3C_2mBathy_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>1809_WFMG3C_2mBathy_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>400</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>8A</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>2018_09_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>400</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>8B</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>2018_09_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F38">
         <v>2</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G38" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG8_WFMG3/Bathymetry/1809_WFMG3D_2mBathy_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>1809_WFMG3D_2mBathy_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>SWFMG</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>8B</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>2018_09_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>6A</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>2018_10_HOG</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F40">
         <v>2</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL6/Bathymetry/EL6A_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>EL6A_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>6A</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>2018_10_HOG</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>6B</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>2018_10_HOG</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F42">
         <v>2</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL6/Bathymetry/EL6B_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>EL6B_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>6B</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>2018_10_HOG</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>RADIUS</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>2019_04A_HOG</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F44">
         <v>3</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/RADIUS_1/Bathymetry/RadiusStep1A_3m.bag</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>RadiusStep1A_3m.bag</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>400</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>RADIUS</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>2019_04A_HOG</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>400</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>ULNA</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>2019_04A_HOG</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F46">
         <v>3</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G46" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULNA_1/Bathymetry/UlnaLedges1A_3m.bag</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>UlnaLedges1A_3m.bag</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>400</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>ULNA</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>2019_04A_HOG</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>400</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>RADIUS</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>2019_04B_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F48">
         <v>3</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G48" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/RADIUS_2/Bathymetry/RadiusStep_2A_3m.bag</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>RadiusStep_2A_3m.bag</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>400</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>RADIUS</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>2019_04B_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>400</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>ULBOW</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>2019_04B_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F50">
         <v>3</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G50" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULBOW_1/Bathymetry/ULbow_1A_3m.bag</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>ULbow_1A_3m.bag</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>400</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>ULBOW</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>2019_04B_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>400</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>ULBOW</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>2019_04B_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E52">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F52">
         <v>3</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G52" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULBOW_1/Bathymetry/ULbow_1B_3m.bag</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>ULbow_1B_3m.bag</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>400</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>ULBOW</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>2019_04B_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>400</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>ULNA</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>2019_04B_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E54">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F54">
         <v>3</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G54" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>GRS80</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULNA_2/Bathymetry/UlnaLedges_2A_3m.bag</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>UlnaLedges_2A_3m.bag</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>400</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>ULNA</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>2019_04B_WB2_CBASS</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>400</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Edges</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E56">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F56">
         <v>0.0009999999999999983</v>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>WGS 84</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>longlat</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/The_Edges_Seasonal_MPA/Bathymetry/TheEdges_2005_08_corridor_001.asc</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>TheEdges_2005_08_corridor_001.asc</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Edges</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>FMG</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E58">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F58">
         <v>0.0001000000000000007</v>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>WGS 84</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>longlat</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/Florida_Middle_Grounds_HAPC/Bathymetry/2006_fmg.asc</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>2006_fmg.asc</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>FMG</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>5</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G59" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
           <t>UTM Zone 16, Northern Hemisphere</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/Florida_Middle_Grounds_HAPC/Backscatter/2006_07_fmg_5m_NAfixed.tif</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>2006_07_fmg_5m_NAfixed.tif</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>NE Corner</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E60">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F60">
         <v>9.999999999999835e-05</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>WGS 84</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>longlat</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/Madison_Swanson_MPA/NEcorner/Bathymetry/2002_madison_0001.asc</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>2002_madison_0001.asc</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>NE Corner</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>5</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G61" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/Madison_Swanson_MPA/NEcorner/Backscatter/2002_07_Madison_5m_NAFixed.tif</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>2002_07_Madison_5m_NAFixed.tif</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Twin Ridges</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E62">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F62">
         <v>0.0001000000000000094</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>NAD83</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>longlat</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>NAD83</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/Twin_Ridges/Bathymetry/2002_twin_ridges_0001.asc</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>2002_twin_ridges_0001.asc</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Twin Ridges</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>5</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G63" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/Twin_Ridges/Backscatter/2002_07_twin_ridges_5m.tif</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>2002_07_twin_ridges_5m.tif</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Florida Trackline</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>761401</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E64">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F64">
         <v>8</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G64" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/761401_Florida_Trackline.asc</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>761401_Florida_Trackline.asc</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>181</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E65">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F65">
         <v>4</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G65" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block181_4mSa.asc</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>Block181_4mSa.asc</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E66">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F66">
         <v>4</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G66" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block197_4m.asc</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>Block197_4m.asc</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E67">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F67">
         <v>4</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G67" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block240_4m.asc</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>Block240_4m.asc</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>031E</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E68">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F68">
         <v>5</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G68" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block031E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>Block031E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>032E</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E69">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F69">
         <v>5</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G69" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block032E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>Block032E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>105E</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E70">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F70">
         <v>5</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G70" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block105E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>Block105E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>125_145E</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E71">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F71">
         <v>5</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G71" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125_145E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>Block125_145E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>125E</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E72">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F72">
         <v>5</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G72" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>Block125E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>125E_N</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E73">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F73">
         <v>5</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G73" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125E_N.asc</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>Block125E_N.asc</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>125E_S</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E74">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F74">
         <v>5</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G74" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125E_S.asc</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>Block125E_S.asc</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>145E</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E75">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F75">
         <v>5</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G75" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block145E.asc</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>Block145E.asc</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>197E</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E76">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F76">
         <v>5</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G76" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block197E.asc</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>Block197E.asc</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>226E</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E77">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F77">
         <v>4</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G77" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block226E_4m.asc</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>Block226E_4m.asc</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>238E</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E78">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F78">
         <v>4</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G78" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block238E_4m.asc</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>Block238E_4m.asc</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>240_D266</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E79">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F79">
         <v>4</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G79" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block240_D266_4m.asc</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>Block240_D266_4m.asc</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>240-227</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E80">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F80">
         <v>4</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block240-227_4m.asc</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>Block240-227_4m.asc</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>253E</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E81">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F81">
         <v>4</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G81" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block253E_4m.asc</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>Block253E_4m.asc</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>254a_Day264</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E82">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F82">
         <v>4</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G82" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254a_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>Block254a_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>254b_Day264</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E83">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F83">
         <v>4</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G83" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254b_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>Block254b_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>254c_Day264</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E84">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F84">
         <v>4</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G84" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254c_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>Block254c_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>254d_Day264</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E85">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F85">
         <v>4</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G85" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254d_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>Block254d_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>254E</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E86">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F86">
         <v>4</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G86" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254E_4m.asc</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>Block254E_4m.asc</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>268_Day265</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E87">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F87">
         <v>4</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G87" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block268_Day265_4m.asc</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>Block268_Day265_4m.asc</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>296_Day264</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E88">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F88">
         <v>4</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G88" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block296_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>Block296_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>345E</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E89">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F89">
         <v>5</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G89" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
           <t>UTM_16N</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block345E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>Block345E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>371E</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E90">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F90">
         <v>5</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G90" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
           <t>UTM_16N</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block371E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>Block371E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>372E</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E91">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F91">
         <v>5</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G91" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
           <t>UTM_16N</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block372E.asc</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>Block372E.asc</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>372E_2</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E92">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F92">
         <v>5</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G92" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
           <t>UTM_16N</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block372E_2.asc</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>Block372E_2.asc</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>373E</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E93">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F93">
         <v>5</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G93" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
           <t>UTM_16N</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block373E.asc</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>Block373E.asc</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>403_Day262_CamSites</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E94">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F94">
         <v>2</v>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G94" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
           <t>UTM_16N</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block403_Day262_CamSites_2m.asc</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>Block403_Day262_CamSites_2m.asc</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>403_Day263_CamSites</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E95">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F95">
         <v>2</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G95" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
           <t>UTM_16N</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block403_Day263_CamSites_2m.asc</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>Block403_Day263_CamSites_2m.asc</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="M95" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>404_Day263_CamSites</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E96">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F96">
         <v>2</v>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G96" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
           <t>UTM_16N</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block404_Day263_CamSites_2m.asc</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>Block404_Day263_CamSites_2m.asc</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="M96" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>405_Day262</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E97">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F97">
         <v>4</v>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G97" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
           <t>UTM_16N</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block405_Day262_4m.asc</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>Block405_Day262_4m.asc</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>405_Day263</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E98">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F98">
         <v>4</v>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G98" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
           <t>UTM_16N</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block405_Day263_4m.asc</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>Block405_Day263_4m.asc</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>423E</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E99">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F99">
         <v>4</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G99" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
           <t>UTM_16N</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block423E_4m.asc</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>Block423E_4m.asc</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>495E</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E100">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F100">
         <v>8</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G100" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
           <t>UTM_16N_Nad83</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block495E_8m.asc</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>Block495E_8m.asc</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>525E</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E101">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F101">
         <v>5</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G101" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
           <t>UTM_16N</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block525E.asc</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="L101" t="inlineStr">
         <is>
           <t>Block525E.asc</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="M101" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>553E</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E102">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F102">
         <v>5</v>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G102" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
           <t>UTM_16N</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block553E.asc</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="L102" t="inlineStr">
         <is>
           <t>Block553E.asc</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="M102" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>NMFS Block</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>84E</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E103">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F103">
         <v>5</v>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G103" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
           <t>UTM_17N</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>+a=6378137 +rf=298.257220143428</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block84E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>Block84E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>DeSoto Canyon</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E104">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F104">
         <v>8</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G104" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Bathymetry/Central_Bathymetry/cenbathg/w001001.adf</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="L104" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>DeSoto Canyon</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>8</v>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G105" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Backscatter/Central_Backscatter/cenmosg/w001001.adf</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="M105" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>DeSoto Canyon</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Northern</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E106">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F106">
         <v>8</v>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G106" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Bathymetry/Northern_Bathymetry/nthbathg/w001001.adf</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="M106" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>DeSoto Canyon</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Northern</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>8</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G107" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Backscatter/Northern_Backscatter/nthmosg/w001001.adf</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="M107" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>DeSoto Canyon</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Southern</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E108">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F108">
         <v>8</v>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G108" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Bathymetry/Southern_Bathymetry/sthbathg/w001001.adf</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="M108" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>DeSoto Canyon</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Southern</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>8</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G109" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Backscatter/Southern_Backscatter/sthmosg/w001001.adf</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="L109" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="M109" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>Pinnacles</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E110">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F110">
         <v>16</v>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G110" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/Pinnacles/Bathymetry/bathyg/w001001.adf</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="L110" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="M110" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>Pinnacles</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>16</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G111" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/Pinnacles/Backscatter/mosg/w001001.adf</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="M111" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>Pulley Ridge</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E112">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F112">
         <v>5</v>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G112" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>utm 17</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/Pulley_Ridge/Bathymetry/allpr_filcrop.asc</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>allpr_filcrop.asc</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="M112" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>Pulley Ridge</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E114">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F114">
         <v>4</v>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G114" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/Steamboat_Lumps_MPA/Bathymetry/sbbathyg/w001001.adf</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>4</v>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G115" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/Steamboat_Lumps_MPA/Backscatter/sbmosg/w001001.adf</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="M115" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>WFS</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E116">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F116">
         <v>8</v>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G116" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Central/Bathymetry/cbathyg/w001001.adf</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="L116" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="M116" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>WFS</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>8</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G117" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Central/Backscatter/cmosg/w001001.adf</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="L117" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="M117" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>WFS</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Northern</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E118">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F118">
         <v>8</v>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G118" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Northern/Bathymetry/nbathyg/w001001.adf</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="L118" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="M118" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>WFS</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Northern</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>8</v>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G119" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Northern/Backscatter/nmosg/w001001.adf</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="L119" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="M119" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>WFS</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Southern</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Bathymetry</t>
-        </is>
-      </c>
-      <c r="E120">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F120">
         <v>8</v>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G120" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Southern/Bathymetry/sbathyg/w001001.adf</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="M120" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>WFS</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Southern</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>8</v>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
       <c r="G121" t="inlineStr">
         <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
           <t>unnamed</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>utm 16</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>WGS84</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Southern/Backscatter/smosg/w001001.adf</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="L121" t="inlineStr">
         <is>
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="M121" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>

--- a/Multibeam_metadata.xlsx
+++ b/Multibeam_metadata.xlsx
@@ -3932,6 +3932,14 @@
           <t>David Naar</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Kongsberg Simrad EM3000</t>
+        </is>
+      </c>
+      <c r="P60">
+        <v>300</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3990,6 +3998,14 @@
           <t>David Naar</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Kongsberg Simrad EM3000</t>
+        </is>
+      </c>
+      <c r="P61">
+        <v>300</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -4038,6 +4054,19 @@
           <t>David Naar</t>
         </is>
       </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>R/V Suncoaster</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Kongsberg Simrad EM3000</t>
+        </is>
+      </c>
+      <c r="P62">
+        <v>300</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -4091,6 +4120,19 @@
           <t>David Naar</t>
         </is>
       </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>R/V Suncoaster</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Kongsberg Simrad EM3000</t>
+        </is>
+      </c>
+      <c r="P63">
+        <v>300</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -6669,6 +6711,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Kongsberg Dual-head EM3000</t>
+        </is>
+      </c>
+      <c r="P104">
+        <v>300</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -6727,6 +6782,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Kongsberg Dual-head EM3000</t>
+        </is>
+      </c>
+      <c r="P105">
+        <v>300</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -6785,6 +6853,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Kongsberg Dual-head EM3000</t>
+        </is>
+      </c>
+      <c r="P106">
+        <v>300</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -6843,6 +6924,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Kongsberg Dual-head EM3000</t>
+        </is>
+      </c>
+      <c r="P107">
+        <v>300</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -6901,6 +6995,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Kongsberg Dual-head EM3000</t>
+        </is>
+      </c>
+      <c r="P108">
+        <v>300</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -6959,6 +7066,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Kongsberg Dual-head EM3000</t>
+        </is>
+      </c>
+      <c r="P109">
+        <v>300</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -7118,6 +7238,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>R/V's Bellows &amp; Suncoaster</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Kongsberg Simrad EM3000</t>
+        </is>
+      </c>
+      <c r="P112">
+        <v>300</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -7138,6 +7271,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>R/V's Bellows &amp; Suncoaster</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Kongsberg Simrad EM3000</t>
+        </is>
+      </c>
+      <c r="P113">
+        <v>300</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -7191,6 +7337,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Kongsberg EM1002</t>
+        </is>
+      </c>
+      <c r="P114">
+        <v>95</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -7244,6 +7403,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Kongsberg EM1002</t>
+        </is>
+      </c>
+      <c r="P115">
+        <v>95</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -7302,6 +7474,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Kongsberg EM1002</t>
+        </is>
+      </c>
+      <c r="P116">
+        <v>95</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -7360,6 +7545,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Kongsberg EM1002</t>
+        </is>
+      </c>
+      <c r="P117">
+        <v>95</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -7418,6 +7616,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Kongsberg EM1002</t>
+        </is>
+      </c>
+      <c r="P118">
+        <v>95</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -7476,6 +7687,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Kongsberg EM1002</t>
+        </is>
+      </c>
+      <c r="P119">
+        <v>95</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -7534,6 +7758,19 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Kongsberg EM1002</t>
+        </is>
+      </c>
+      <c r="P120">
+        <v>95</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -7591,6 +7828,19 @@
         <is>
           <t>USGS</t>
         </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>R/V Moana Wave</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Kongsberg EM1002</t>
+        </is>
+      </c>
+      <c r="P121">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Multibeam_metadata.xlsx
+++ b/Multibeam_metadata.xlsx
@@ -2858,6 +2858,14 @@
           <t>R/V Hogarth</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Teledyne Reson SeaBat T50-R Dual Head</t>
+        </is>
+      </c>
+      <c r="P40">
+        <v>400</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2893,6 +2901,14 @@
           <t>R/V Hogarth</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Teledyne Reson SeaBat T50-R Dual Head</t>
+        </is>
+      </c>
+      <c r="P41">
+        <v>400</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2961,6 +2977,14 @@
           <t>R/V Hogarth</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Teledyne Reson SeaBat T50-R Dual Head</t>
+        </is>
+      </c>
+      <c r="P42">
+        <v>400</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2995,6 +3019,14 @@
         <is>
           <t>R/V Hogarth</t>
         </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Teledyne Reson SeaBat T50-R Dual Head</t>
+        </is>
+      </c>
+      <c r="P43">
+        <v>400</v>
       </c>
     </row>
     <row r="44">

--- a/Multibeam_metadata.xlsx
+++ b/Multibeam_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,6 +438,11 @@
           <t>Frequency_kHz</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Old_Server_Location</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -514,6 +519,11 @@
       <c r="P2">
         <v>400</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL1/Bathymetry/EL1_Bathymetry_CUBE_2m.tiff</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -590,6 +600,11 @@
       <c r="P3">
         <v>400</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL1/Backscatter/EL1_1mTimeSeriesBS_TrimmedtoMosaic_AVG800.tiff</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -666,6 +681,11 @@
       <c r="P4">
         <v>400</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/MS_Gap/Bathymetry/Madison_Swanson_Gap_2m_Swath_Bathy.bag</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -742,6 +762,11 @@
       <c r="P5">
         <v>400</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/MS_Gap/Backscatter/WBII2016_04_MadisonSwansonGap_Snippetgeotiff.tif</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -818,6 +843,11 @@
       <c r="P6">
         <v>400</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG1/Bathymetry/CUBE/SWFMGMay2016_2.5mCube.bag</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -894,6 +924,11 @@
       <c r="P7">
         <v>400</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG1/Backscatter/SWFMGMay2016_1mBackScatter.tiff</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -970,6 +1005,11 @@
       <c r="P8">
         <v>400</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG2/Bathymetry/Swath_Angle/SWFMG2June2016_2m.tiff</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -1046,6 +1086,11 @@
       <c r="P9">
         <v>400</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG2/Backscatter/SWFMG2June2016_1mBackScatter_cropped.tif</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1122,6 +1167,11 @@
       <c r="P10">
         <v>400</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG3/Bathymetry/CUBE/SWFMG3July2016Cube_2m.bag</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1198,6 +1248,11 @@
       <c r="P11">
         <v>400</v>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG3/Backscatter/SWFMG3July2016_1mBS.tiff</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1274,6 +1329,11 @@
       <c r="P12">
         <v>400</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG4/Bathymetry/CUBE/SWFMG4Cube2m.bag</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1350,6 +1410,11 @@
       <c r="P13">
         <v>400</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG4/Backscatter/SWFMG4BeamAverage1m.tiff</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1413,6 +1478,11 @@
           <t>CSCAMP</t>
         </is>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/EFMG/EFMG1/Bathymetry/EastFMG1mswathangleApril2017.bag</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1519,6 +1589,11 @@
       <c r="P16">
         <v>400</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL2/Bathymetry/EL2_AGU.bag</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1633,6 +1708,11 @@
       <c r="P18">
         <v>400</v>
       </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG5/Bathymetry/SWFMG5_4mCUBEBathy.bag</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1742,6 +1822,11 @@
       <c r="P20">
         <v>400</v>
       </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG6_WFMG1/Bathymetry/Cube/WFMG_4mCUBEBathy.bag</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1856,6 +1941,11 @@
       <c r="P22">
         <v>400</v>
       </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL3/Bathymetry/EL3_4mSwathBathy.bag</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1970,6 +2060,11 @@
       <c r="P24">
         <v>400</v>
       </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG7_WFMG2/Bathymetry/WFMG2_4mSwathBathy.bag</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -2084,6 +2179,11 @@
       <c r="P26">
         <v>400</v>
       </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL4/Bathymetry/201804Elbow2mSA.bag</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -2160,6 +2260,11 @@
       <c r="P27">
         <v>400</v>
       </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL4/Backscatter/EL4BS1m.tiff</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -2228,6 +2333,11 @@
           <t>R/V Hogarth</t>
         </is>
       </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1_Cruises/2018_07B_HOG_SWFMG/QimeraProject/2018-07B-HOG/Export/SWFMG1807_2m_Raw.bag</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -2331,6 +2441,11 @@
           <t>R/V Hogarth</t>
         </is>
       </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1_Cruises/2018_08_HOG_SWFMG/QimeraProjects/2018-08-HOG/Export/1808-SWFMG_2m_Raw.bag</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -2434,6 +2549,11 @@
           <t>R/V Hogarth</t>
         </is>
       </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>1_Cruises/2018_08_HOG_SWFMG/QimeraProjects/2018-08-HOG/Export/Mustache_Ext.bag</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2545,6 +2665,11 @@
       <c r="P34">
         <v>400</v>
       </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL5/Bathymetry/1809_EL5_2mBathy_PRELIMINARY.bag</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2659,6 +2784,11 @@
       <c r="P36">
         <v>400</v>
       </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG8_WFMG3/Bathymetry/1809_WFMG3C_2mBathy_PRELIMINARY.bag</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2760,6 +2890,11 @@
           <t>CSCAMP</t>
         </is>
       </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG8_WFMG3/Bathymetry/1809_WFMG3D_2mBathy_PRELIMINARY.bag</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2866,6 +3001,11 @@
       <c r="P40">
         <v>400</v>
       </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL6/Bathymetry/EL6A_PRELIMINARY.bag</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2985,6 +3125,11 @@
       <c r="P42">
         <v>400</v>
       </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL6/Bathymetry/EL6B_PRELIMINARY.bag</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -3104,6 +3249,11 @@
       <c r="P44">
         <v>400</v>
       </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/RADIUS_1/Bathymetry/RadiusStep1A_3m.bag</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -3129,6 +3279,39 @@
           <t>Backscatter</t>
         </is>
       </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1_Cruises/2019_04A_HOG/Multibeam/FMGT_Projects/RADIUS_1A.fmproj/Output/Mosaic/RADIUS_1A_BS_TS_43-47_1m/RADIUS_1A_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>RADIUS_1A_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
           <t>CSCAMP</t>
@@ -3223,6 +3406,11 @@
       <c r="P46">
         <v>400</v>
       </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULNA_1/Bathymetry/UlnaLedges1A_3m.bag</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -3248,6 +3436,39 @@
           <t>Backscatter</t>
         </is>
       </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1_Cruises/2019_04A_HOG/Multibeam/FMGT_Projects/ULNA_1A.fmproj/Output/Mosaic/ULNA_1A_BS_TS_43-47_1m/ULNA_1A_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ULNA_1A_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
           <t>CSCAMP</t>
@@ -3342,6 +3563,11 @@
       <c r="P48">
         <v>400</v>
       </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/RADIUS_2/Bathymetry/RadiusStep_2A_3m.bag</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -3367,6 +3593,39 @@
           <t>Backscatter</t>
         </is>
       </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/RADIUS_2A.fmproj/Output/Mosaic/RADIUS_2A_BS_TS_43-47_1m/RADIUS_2A_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>RADIUS_2A_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
           <t>CSCAMP</t>
@@ -3461,6 +3720,11 @@
       <c r="P50">
         <v>400</v>
       </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULBOW_1/Bathymetry/ULbow_1A_3m.bag</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -3486,6 +3750,39 @@
           <t>Backscatter</t>
         </is>
       </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULBOW_1A.fmproj/Output/Mosaic/ULBOW_1A_BS_TS_43-47_1m/ULBOW_1A_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ULBOW_1A_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
           <t>CSCAMP</t>
@@ -3580,6 +3877,11 @@
       <c r="P52">
         <v>400</v>
       </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULBOW_1/Bathymetry/ULbow_1B_3m.bag</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3605,6 +3907,39 @@
           <t>Backscatter</t>
         </is>
       </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULBOW_1B.fmproj/Output/Mosaic/ULBOW_1B_BS_TS_43-47_1m/ULBOW_1B_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ULBOW_1B_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
           <t>CSCAMP</t>
@@ -3673,12 +4008,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULNA_2/Bathymetry/UlnaLedges_2A_3m.bag</t>
+          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/Qimera_Project/2019-04B-WB2-CBASS/Export/ULNA_2A_3m.bag</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>UlnaLedges_2A_3m.bag</t>
+          <t>ULNA_2A_3m.bag</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -3698,6 +4033,11 @@
       </c>
       <c r="P54">
         <v>400</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULNA_2/Bathymetry/UlnaLedges_2A_3m.bag</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -3724,6 +4064,39 @@
           <t>Backscatter</t>
         </is>
       </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULNA_2A.fmproj/Output/Mosaic/ULNA_2A_BS_TS_43-47_1m/ULNA_2A_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ULNA_2A_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
           <t>CSCAMP</t>
@@ -3790,6 +4163,11 @@
           <t>David Naar</t>
         </is>
       </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/The_Edges_Seasonal_MPA/Bathymetry/TheEdges_2005_08_corridor_001.asc</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3858,6 +4236,11 @@
           <t>David Naar</t>
         </is>
       </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Florida_Middle_Grounds_HAPC/Bathymetry/2006_fmg.asc</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3911,6 +4294,11 @@
           <t>David Naar</t>
         </is>
       </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Florida_Middle_Grounds_HAPC/Backscatter/2006_07_fmg_5m_NAfixed.tif</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3972,6 +4360,11 @@
       <c r="P60">
         <v>300</v>
       </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Madison_Swanson_MPA/NEcorner/Bathymetry/2002_madison_0001.asc</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -4038,6 +4431,11 @@
       <c r="P61">
         <v>300</v>
       </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Madison_Swanson_MPA/NEcorner/Backscatter/2002_07_Madison_5m_NAFixed.tif</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -4099,6 +4497,11 @@
       <c r="P62">
         <v>300</v>
       </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Twin_Ridges/Bathymetry/2002_twin_ridges_0001.asc</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -4165,6 +4568,11 @@
       <c r="P63">
         <v>300</v>
       </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Twin_Ridges/Backscatter/2002_07_twin_ridges_5m.tif</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -4228,6 +4636,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/761401_Florida_Trackline.asc</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -4291,6 +4704,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block181_4mSa.asc</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -4354,6 +4772,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block197_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -4417,6 +4840,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block240_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -4480,6 +4908,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block031E_5m_Cube.asc</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -4543,6 +4976,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block032E_5m_Cube.asc</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -4606,6 +5044,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block105E_5m_Cube.asc</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -4669,6 +5112,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125_145E_5m_Cube.asc</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4732,6 +5180,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125E_5m_Cube.asc</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4795,6 +5248,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125E_N.asc</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4858,6 +5316,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125E_S.asc</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4921,6 +5384,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block145E.asc</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4984,6 +5452,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block197E.asc</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -5047,6 +5520,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block226E_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -5110,6 +5588,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block238E_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -5173,6 +5656,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block240_D266_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -5236,6 +5724,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block240-227_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -5299,6 +5792,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block253E_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -5362,6 +5860,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254a_Day264_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -5425,6 +5928,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254b_Day264_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -5488,6 +5996,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254c_Day264_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -5551,6 +6064,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254d_Day264_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -5614,6 +6132,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254E_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -5677,6 +6200,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block268_Day265_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -5740,6 +6268,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block296_Day264_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -5803,6 +6336,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block345E_5m_Cube.asc</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -5866,6 +6404,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block371E_5m_Cube.asc</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -5929,6 +6472,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block372E.asc</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5992,6 +6540,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block372E_2.asc</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -6055,6 +6608,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block373E.asc</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -6118,6 +6676,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block403_Day262_CamSites_2m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -6181,6 +6744,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block403_Day263_CamSites_2m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -6244,6 +6812,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block404_Day263_CamSites_2m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -6307,6 +6880,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block405_Day262_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -6370,6 +6948,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block405_Day263_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -6433,6 +7016,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block423E_4m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -6496,6 +7084,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block495E_8m.asc</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -6559,6 +7152,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block525E.asc</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -6622,6 +7220,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block553E.asc</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -6685,6 +7288,11 @@
           <t>Simrad ME70</t>
         </is>
       </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block84E_5m_Cube.asc</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -6756,6 +7364,11 @@
       <c r="P104">
         <v>300</v>
       </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Bathymetry/Central_Bathymetry/cenbathg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -6827,6 +7440,11 @@
       <c r="P105">
         <v>300</v>
       </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Backscatter/Central_Backscatter/cenmosg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -6898,6 +7516,11 @@
       <c r="P106">
         <v>300</v>
       </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Bathymetry/Northern_Bathymetry/nthbathg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -6969,6 +7592,11 @@
       <c r="P107">
         <v>300</v>
       </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Backscatter/Northern_Backscatter/nthmosg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -7040,6 +7668,11 @@
       <c r="P108">
         <v>300</v>
       </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Bathymetry/Southern_Bathymetry/sthbathg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -7111,6 +7744,11 @@
       <c r="P109">
         <v>300</v>
       </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Backscatter/Southern_Backscatter/sthmosg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -7164,6 +7802,11 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Pinnacles/Bathymetry/bathyg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -7217,6 +7860,11 @@
           <t>USGS</t>
         </is>
       </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Pinnacles/Backscatter/mosg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -7283,6 +7931,11 @@
       <c r="P112">
         <v>300</v>
       </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Pulley_Ridge/Bathymetry/allpr_filcrop.asc</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -7382,6 +8035,11 @@
       <c r="P114">
         <v>95</v>
       </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Steamboat_Lumps_MPA/Bathymetry/sbbathyg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -7448,6 +8106,11 @@
       <c r="P115">
         <v>95</v>
       </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Steamboat_Lumps_MPA/Backscatter/sbmosg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -7519,6 +8182,11 @@
       <c r="P116">
         <v>95</v>
       </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Central/Bathymetry/cbathyg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -7590,6 +8258,11 @@
       <c r="P117">
         <v>95</v>
       </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Central/Backscatter/cmosg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -7661,6 +8334,11 @@
       <c r="P118">
         <v>95</v>
       </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Northern/Bathymetry/nbathyg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -7732,6 +8410,11 @@
       <c r="P119">
         <v>95</v>
       </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Northern/Backscatter/nmosg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -7803,6 +8486,11 @@
       <c r="P120">
         <v>95</v>
       </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Southern/Bathymetry/sbathyg/w001001.adf</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -7873,6 +8561,163 @@
       </c>
       <c r="P121">
         <v>95</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Southern/Backscatter/smosg/w001001.adf</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ULNA</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2019_04B_WB2_CBASS</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>FPC_Universal_Transverse_Mercator_North_Hemisphere</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>GRS80</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/Qimera_Project/2019-04B-WB2-CBASS/Export/ULNA_2B_3m.bag</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>ULNA_2B_3m.bag</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>CSCAMP</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>R/V Weatherbird II</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Teledyne Reson SeaBat T50-R Dual Head</t>
+        </is>
+      </c>
+      <c r="P122">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ULNA</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2019_04B_WB2_CBASS</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Backscatter</t>
+        </is>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULNA_2B.fmproj/Output/Mosaic/ULNA_2B_BS_TS_43-47_1m/ULNA_2B_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>ULNA_2B_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>CSCAMP</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>R/V Weatherbird II</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Teledyne Reson SeaBat T50-R Dual Head</t>
+        </is>
+      </c>
+      <c r="P123">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Multibeam_metadata.xlsx
+++ b/Multibeam_metadata.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>D:/Ilich/1_Cruises/2018_07B_HOG_SWFMG/FMGT_Projects/SWFMG_9.fmproj/Output/Mosaic/SWFMG_9_BS_TS_43-47_1m/SWFMG_9_BS_TS_43-47_1m.tif</t>
+          <t>1_Cruises/2018_07B_HOG_SWFMG/FMGT_Projects/SWFMG_9.fmproj/Output/Mosaic/SWFMG_9_BS_TS_43-47_1m/SWFMG_9_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>D:/Ilich/1_Cruises/2018_08_HOG_SWFMG/FMGT_Projects/SWFMG_10A.fmproj/Output/Mosaic/SWFMG_10A_BS_TS_43-47_1m/SWFMG_10A_BS_TS_43-47_1m.tif</t>
+          <t>1_Cruises/2018_08_HOG_SWFMG/FMGT_Projects/SWFMG_10A.fmproj/Output/Mosaic/SWFMG_10A_BS_TS_43-47_1m/SWFMG_10A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>D:/Ilich/1_Cruises/2018_08_HOG_SWFMG/FMGT_Projects/SWFMG_10B.fmproj/Output/Mosaic/SWFMG_10B_BS_TS_43-47_1m/SWFMG_10B_BS_TS_43-47_1m.tif</t>
+          <t>1_Cruises/2018_08_HOG_SWFMG/FMGT_Projects/SWFMG_10B.fmproj/Output/Mosaic/SWFMG_10B_BS_TS_43-47_1m/SWFMG_10B_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9516,7 @@
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>https://www.marine.usf.edu/scamp/</t>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
     </row>

--- a/Multibeam_metadata.xlsx
+++ b/Multibeam_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U127"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,30 +435,35 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Secondary_File</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Vessel</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Sonar</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Frequency_kHz</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
@@ -504,12 +509,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>WGS 84 / UTM zone 17N</t>
+          <t>WGS_84_UTM_zone_16N</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>utm 17</t>
+          <t>utm 16</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -519,35 +524,45 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL1/Bathymetry/EL1_Bathymetry_CUBE_2m.tiff</t>
+          <t>comit_wrk/ailich/2015_12/QimeraProjects/2015_12/Export/BAGS/EL1.bag</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>EL1_Bathymetry_CUBE_2m.tiff</t>
+          <t>EL1.bag</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL1/Bathymetry/EL1_Bathymetry_CUBE_2m.tiff</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>400</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Secondary version projection is UTM 17N event hough should have been UTM 16N</t>
         </is>
       </c>
     </row>
@@ -591,12 +606,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>WGS 84 / UTM zone 17N</t>
+          <t>WGS 84 / UTM zone 16N</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>utm 17</t>
+          <t>utm 16</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -606,33 +621,38 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL1/Backscatter/EL1_1mTimeSeriesBS_TrimmedtoMosaic_AVG800.tiff</t>
+          <t>comit_wrk/ailich/2015_12/FMGT_PROJECTS/EL1.fmproj/Output/Mosaic/EL_1_BS_TS_43-47_1m/EL_1_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>EL1_1mTimeSeriesBS_TrimmedtoMosaic_AVG800.tiff</t>
+          <t>EL_1_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL1/Backscatter/EL1_1mTimeSeriesBS_TrimmedtoMosaic_AVG800.tiff</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>400</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -693,7 +713,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/MS_Gap/Bathymetry/Madison_Swanson_Gap_2m_Swath_Bathy.bag</t>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/MS_Gap/Bathymetry/Madison_Swanson_Gap_2m_Swath_Bathy.bag</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -701,27 +721,32 @@
           <t>Madison_Swanson_Gap_2m_Swath_Bathy.bag</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>400</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Did not rerun with QPS suite b/c small</t>
         </is>
       </c>
     </row>
@@ -780,7 +805,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/MS_Gap/Backscatter/WBII2016_04_MadisonSwansonGap_Snippetgeotiff.tif</t>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/MS_Gap/Backscatter/WBII2016_04_MadisonSwansonGap_Snippetgeotiff.tif</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -788,27 +813,32 @@
           <t>WBII2016_04_MadisonSwansonGap_Snippetgeotiff.tif</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>400</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Did not rerun with QPS suite b/c small</t>
         </is>
       </c>
     </row>
@@ -843,7 +873,7 @@
         </is>
       </c>
       <c r="I6">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -852,7 +882,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>EPSG:32616</t>
+          <t>WGS_84_UTM_zone_16N</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -862,38 +892,43 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>+a=6378137 +rf=298.257220143428</t>
+          <t>WGS84</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG1/Bathymetry/CUBE/SWFMGMay2016_2.5mCube.bag</t>
+          <t>comit_wrk/ailich/2016_05/QimeraProject/2016-05-BEL/Export/BAGS/SWFMG1.bag</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>SWFMGMay2016_2.5mCube.bag</t>
+          <t>SWFMG1.bag</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG1/Bathymetry/CUBE/SWFMGMay2016_2.5mCube.bag</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>400</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -954,33 +989,38 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG1/Backscatter/SWFMGMay2016_1mBackScatter.tiff</t>
+          <t>comit_wrk/ailich/2016_05/FMGT_Projects/SWFMG1.fmproj/Output/Mosaic/SWFMG_1_BS_TS_43-47_1m/SWFMG_1_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>SWFMGMay2016_1mBackScatter.tiff</t>
+          <t>SWFMG_1_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG1/Backscatter/SWFMGMay2016_1mBackScatter.tiff</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>400</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -1026,7 +1066,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>WGS 84 / UTM zone 16N</t>
+          <t>WGS_84_UTM_zone_16N</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1041,33 +1081,38 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG2/Bathymetry/Swath_Angle/SWFMG2June2016_2m.tiff</t>
+          <t>comit_wrk/ailich/2016_06/Qimera_Project/2016-06-WB2/Export/BAGS/SWFMG2.bag</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>SWFMG2June2016_2m.tiff</t>
+          <t>SWFMG2.bag</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG2/Bathymetry/Swath_Angle/SWFMG2June2016_2m.tiff</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>400</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -1128,33 +1173,38 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG2/Backscatter/SWFMG2June2016_1mBackScatter_cropped.tif</t>
+          <t>comit_wrk/ailich/2016_06/FMGT_Projects/SWFMG2.fmproj/Output/Mosaic/SWFMG_2_BS_TS_43-47_1m/SWFMG_2_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>SWFMG2June2016_1mBackScatter_cropped.tif</t>
+          <t>SWFMG_2_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG2/Backscatter/SWFMG2June2016_1mBackScatter_cropped.tif</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>400</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -1200,48 +1250,53 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>EPSG:32617</t>
+          <t>WGS_84_UTM_zone_16N</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>utm 17</t>
+          <t>utm 16</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>+a=6378137 +rf=298.257220143428</t>
+          <t>WGS84</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG3/Bathymetry/CUBE/SWFMG3July2016Cube_2m.bag</t>
+          <t>comit_wrk/ailich/2016-07/QimeraProjects/2016-07-BEL/Export/BAGS/SWFMG3.bag</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>SWFMG3July2016Cube_2m.bag</t>
+          <t>SWFMG3.bag</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG3/Bathymetry/CUBE/SWFMG3July2016Cube_2m.bag</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>400</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -1287,12 +1342,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>WGS 84 / UTM zone 17N</t>
+          <t>WGS 84 / UTM zone 16N</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>utm 17</t>
+          <t>utm 16</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1302,33 +1357,38 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG3/Backscatter/SWFMG3July2016_1mBS.tiff</t>
+          <t>comit_wrk/ailich/2016-07/FMGT_Projects/SWFMG3.fmproj/Output/Mosaic/SWFMG_3_BS_TS_43-47_1m/SWFMG_3_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>SWFMG3July2016_1mBS.tiff</t>
+          <t>SWFMG_3_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG3/Backscatter/SWFMG3July2016_1mBS.tiff</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>400</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -1374,48 +1434,53 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>EPSG:32617</t>
+          <t>WGS_84_UTM_zone_16N</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>utm 17</t>
+          <t>utm 16</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>+a=6378137 +rf=298.257220143428</t>
+          <t>WGS84</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG4/Bathymetry/CUBE/SWFMG4Cube2m.bag</t>
+          <t>NFWF/1_Cruises/2016_09_BEL_SWFMG/Multibeam/Qimera_Projects/2016-09-BEL/Export/BAGS/SWFMG4.bag</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>SWFMG4Cube2m.bag</t>
+          <t>SWFMG4.bag</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG4/Bathymetry/CUBE/SWFMG4Cube2m.bag</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>400</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -1461,12 +1526,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>WGS 84 / UTM zone 17N</t>
+          <t>WGS 84 / UTM zone 16N</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>utm 17</t>
+          <t>utm 16</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1476,33 +1541,38 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG4/Backscatter/SWFMG4BeamAverage1m.tiff</t>
+          <t>NFWF/1_Cruises/2016_09_BEL_SWFMG/Multibeam/FMGT_Projects/SWFMG_4.fmproj/Output/Mosaic/SWFMG_4_BS_TS_43-47_1m/SWFMG_4_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>SWFMG4BeamAverage1m.tiff</t>
+          <t>SWFMG_4_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG4/Backscatter/SWFMG4BeamAverage1m.tiff</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>400</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -1539,7 +1609,7 @@
         </is>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1548,7 +1618,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>WGS 84 / UTM zone 16N</t>
+          <t>WGS_84_UTM_zone_16N</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1563,33 +1633,38 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/EFMG/EFMG1/Bathymetry/EastFMG1mswathangleApril2017.bag</t>
+          <t>NFWF/1_Cruises/2017_04_WB2_CBASS/Multibeam/Qimera_Projects/2017-04-WB2/Export/BAGS/EFMG1_2m.bag</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>EastFMG1mswathangleApril2017.bag</t>
+          <t>EFMG1_2m.bag</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/EFMG/EFMG1/Bathymetry/EastFMG1mswathangleApril2017.bag</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>400</v>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -1625,25 +1700,58 @@
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NFWF/1_Cruises/2017_04_WB2_CBASS/Multibeam/FMGT_Projects/EFMG1.fmproj/Output/Mosaic/EFMG1_BS_TS_43-47_1m/EFMG1_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>EFMG1_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>400</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -1680,7 +1788,7 @@
         </is>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1689,7 +1797,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>WGS 84 / UTM zone 16N</t>
+          <t>WGS_84_UTM_zone_16N</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1704,33 +1812,38 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL2/Bathymetry/EL2_AGU.bag</t>
+          <t>NFWF/1_Cruises/2017_04_WB2_CBASS/Multibeam/Qimera_Projects/2017-04-WB2/Export/BAGS/EL2_2m.bag</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>EL2_AGU.bag</t>
+          <t>EL2_2m.bag</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL2/Bathymetry/EL2_AGU.bag</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7126</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>400</v>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -1766,25 +1879,58 @@
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NFWF/1_Cruises/2017_04_WB2_CBASS/Multibeam/FMGT_Projects/EL2.fmproj/Output/Mosaic/EL_2_BS_TS_43-47_1m/EL_2_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>EL_2_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7127</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>400</v>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -1830,7 +1976,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>WGS 84 / UTM zone 16N</t>
+          <t>WGS_84_UTM_zone_16N</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1845,33 +1991,38 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG5/Bathymetry/SWFMG5_4mCUBEBathy.bag</t>
+          <t>NFWF/1_Cruises/2017_07A_BEL_SWFMG/Multibeam/QimeraProjects/2017-07A-BEL/Export/BAGS/SWFMG5.bag</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>SWFMG5_4mCUBEBathy.bag</t>
+          <t>SWFMG5.bag</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG5/Bathymetry/SWFMG5_4mCUBEBathy.bag</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>400</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -1907,25 +2058,58 @@
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NFWF/1_Cruises/2017_07A_BEL_SWFMG/Multibeam/FMGT_Projects/SWFMG5.fmproj/Output/Mosaic/SWFMG_5_BS_TS_43-47_1m/SWFMG_5_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>SWFMG_5_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>400</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -1945,6 +2129,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>WFMG</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>2017_07C_BEL_SWFMG</t>
@@ -1971,7 +2160,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>EPSG:32616</t>
+          <t>WGS_84_UTM_zone_16N</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1986,33 +2175,38 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG6_WFMG1/Bathymetry/Cube/WFMG_4mCUBEBathy.bag</t>
+          <t>NFWF/1_Cruises/2017_07C_BEL_SWFMG/Multibeam/QimeraProjects/2017-07C-BEL/Export/BAGS/SWFMG6.bag</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>WFMG_4mCUBEBathy.bag</t>
+          <t>SWFMG6.bag</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG6_WFMG1/Bathymetry/Cube/WFMG_4mCUBEBathy.bag</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>400</v>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -2048,25 +2242,58 @@
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>NFWF/1_Cruises/2017_07C_BEL_SWFMG/Multibeam/FMGT_Projects/SWFMG6.fmproj/Output/Mosaic/SWFMG_6_BS_TS_43-47_1m/SWFMG_6_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>SWFMG_6_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>R/V Bellows</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>400</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -2112,7 +2339,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>WGS 84 / UTM zone 16N</t>
+          <t>WGS_84_UTM_zone_16N</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2127,33 +2354,38 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL3/Bathymetry/EL3_4mSwathBathy.bag</t>
+          <t>NFWF/1_Cruises/2017_10_WB2_CBASS/Multibeam/Qimera_Project/2017-10-WB2/Export/BAGS/EL3.bag</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>EL3_4mSwathBathy.bag</t>
+          <t>EL3.bag</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL3/Bathymetry/EL3_4mSwathBathy.bag</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7126</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>400</v>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -2189,25 +2421,58 @@
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>NFWF/1_Cruises/2017_10_WB2_CBASS/Multibeam/FMGT_Projects/EL3.fmproj/Output/Mosaic/EL_3_BS_TS_43-47_1m/EL_3_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>EL_3_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7127</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>400</v>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -2224,7 +2489,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>7AB</t>
+          <t>7A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>WFMG2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2253,7 +2523,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>WGS 84 / UTM zone 16N</t>
+          <t>WGS_84_UTM_zone_16N</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2268,40 +2538,45 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG7_WFMG2/Bathymetry/WFMG2_4mSwathBathy.bag</t>
+          <t>NFWF/1_Cruises/2017_10_WB2_CBASS/Multibeam/Qimera_Project/2017-10-WB2/Export/BAGS/SWFMG7A.bag</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>WFMG2_4mSwathBathy.bag</t>
+          <t>SWFMG7A.bag</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG7_WFMG2/Bathymetry/WFMG2_4mSwathBathy.bag</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>400</v>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>Split this up</t>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Secondary version has 7A and 7B in one file</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2591,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7AB</t>
+          <t>7A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>WFMG2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2335,32 +2615,60 @@
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>NFWF/1_Cruises/2017_10_WB2_CBASS/Multibeam/FMGT_Projects/SWFMG7A.fmproj/Output/Mosaic/SWFMG_7A_BS_TS_43-47_1m/SWFMG_7A_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>SWFMG_7A_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>400</v>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>Split this up</t>
         </is>
       </c>
     </row>
@@ -2404,12 +2712,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>WGS 84 / World Mercator</t>
+          <t>WGS_84_UTM_zone_16N</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>merc</t>
+          <t>utm 16</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2419,35 +2727,45 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL4/Bathymetry/201804Elbow2mSA.bag</t>
+          <t>NFWF/1_Cruises/2018_04C_WB2_CBASS/Multibeam/Qimera_Project/2018-04C-WB2/Export/BAGS/EL4.bag</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>201804Elbow2mSA.bag</t>
+          <t>EL4.bag</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL4/Bathymetry/201804Elbow2mSA.bag</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>400</v>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>C-SCAMP begins transition to QPS Suite</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2809,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>WGS 84 / World Mercator</t>
+          <t>WGS 84 / UTM zone 16N</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>merc</t>
+          <t>utm 16</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2506,33 +2824,38 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL4/Backscatter/EL4BS1m.tiff</t>
+          <t>NFWF/1_Cruises/2018_04C_WB2_CBASS/Multibeam/FMGT_Projects/EL4.fmproj/Output/Mosaic/EL_4_BS_TS_43-47_1m/EL_4_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>EL4BS1m.tiff</t>
+          <t>EL_4_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL4/Backscatter/EL4BS1m.tiff</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>400</v>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -2598,7 +2921,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1_Cruises/2018_07B_HOG_SWFMG/QimeraProject/2018-07B-HOG/Export/SWFMG1807_2m_Raw.bag</t>
+          <t>NFWF/1_Cruises/2018_07B_HOG_SWFMG/QimeraProject/2018-07B-HOG/Export/SWFMG1807_2m_Raw.bag</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2606,25 +2929,25 @@
           <t>SWFMG1807_2m_Raw.bag</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>400</v>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -2690,7 +3013,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1_Cruises/2018_07B_HOG_SWFMG/FMGT_Projects/SWFMG_9.fmproj/Output/Mosaic/SWFMG_9_BS_TS_43-47_1m/SWFMG_9_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2018_07B_HOG_SWFMG/FMGT_Projects/SWFMG_9.fmproj/Output/Mosaic/SWFMG_9_BS_TS_43-47_1m/SWFMG_9_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2698,25 +3021,25 @@
           <t>SWFMG_9_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>400</v>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -2782,7 +3105,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1_Cruises/2018_08_HOG_SWFMG/QimeraProjects/2018-08-HOG/Export/1808-SWFMG_2m_Raw.bag</t>
+          <t>NFWF/1_Cruises/2018_08_HOG_SWFMG/QimeraProjects/2018-08-HOG/Export/1808-SWFMG_2m_Raw.bag</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2790,25 +3113,25 @@
           <t>1808-SWFMG_2m_Raw.bag</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>400</v>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -2874,7 +3197,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1_Cruises/2018_08_HOG_SWFMG/FMGT_Projects/SWFMG_10A.fmproj/Output/Mosaic/SWFMG_10A_BS_TS_43-47_1m/SWFMG_10A_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2018_08_HOG_SWFMG/FMGT_Projects/SWFMG_10A.fmproj/Output/Mosaic/SWFMG_10A_BS_TS_43-47_1m/SWFMG_10A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2882,25 +3205,25 @@
           <t>SWFMG_10A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>400</v>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -2966,7 +3289,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1_Cruises/2018_08_HOG_SWFMG/QimeraProjects/2018-08-HOG/Export/Mustache_Ext.bag</t>
+          <t>NFWF/1_Cruises/2018_08_HOG_SWFMG/QimeraProjects/2018-08-HOG/Export/Mustache_Ext.bag</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2974,25 +3297,25 @@
           <t>Mustache_Ext.bag</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>400</v>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -3058,7 +3381,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1_Cruises/2018_08_HOG_SWFMG/FMGT_Projects/SWFMG_10B.fmproj/Output/Mosaic/SWFMG_10B_BS_TS_43-47_1m/SWFMG_10B_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2018_08_HOG_SWFMG/FMGT_Projects/SWFMG_10B.fmproj/Output/Mosaic/SWFMG_10B_BS_TS_43-47_1m/SWFMG_10B_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -3066,25 +3389,25 @@
           <t>SWFMG_10B_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>400</v>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -3145,7 +3468,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL5/Bathymetry/1809_EL5_2mBathy_PRELIMINARY.bag</t>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL5/Bathymetry/1809_EL5_2mBathy_PRELIMINARY.bag</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3153,25 +3476,25 @@
           <t>1809_EL5_2mBathy_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>400</v>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -3232,7 +3555,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1_Cruises/2018_09_WB2_CBASS/Multibeam/FMGT_Projects/EL_5.fmproj/Output/Mosaic/EL_5_BS_TS_43-47_1m/EL_5_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2018_09_WB2_CBASS/Multibeam/FMGT_Projects/EL_5.fmproj/Output/Mosaic/EL_5_BS_TS_43-47_1m/EL_5_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3240,25 +3563,25 @@
           <t>EL_5_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>400</v>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -3324,7 +3647,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG8_WFMG3/Bathymetry/1809_WFMG3C_2mBathy_PRELIMINARY.bag</t>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG8_WFMG3/Bathymetry/1809_WFMG3C_2mBathy_PRELIMINARY.bag</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3332,25 +3655,25 @@
           <t>1809_WFMG3C_2mBathy_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>400</v>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -3416,7 +3739,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1_Cruises/2018_09_WB2_CBASS/Multibeam/FMGT_Projects/SWFMG_8A.fmproj/Output/Mosaic/SWFMG_8A_BS_TS_43-47_1m/SWFMG_8A_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2018_09_WB2_CBASS/Multibeam/FMGT_Projects/SWFMG_8A.fmproj/Output/Mosaic/SWFMG_8A_BS_TS_43-47_1m/SWFMG_8A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3424,25 +3747,25 @@
           <t>SWFMG_8A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>400</v>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -3508,7 +3831,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG8_WFMG3/Bathymetry/1809_WFMG3D_2mBathy_PRELIMINARY.bag</t>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG8_WFMG3/Bathymetry/1809_WFMG3D_2mBathy_PRELIMINARY.bag</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3516,25 +3839,25 @@
           <t>1809_WFMG3D_2mBathy_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>400</v>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -3600,7 +3923,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1_Cruises/2018_09_WB2_CBASS/Multibeam/FMGT_Projects/SWFMG_8B.fmproj/Output/Mosaic/SWFMG_8B_BS_TS_43-47_1m/SWFMG_8B_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2018_09_WB2_CBASS/Multibeam/FMGT_Projects/SWFMG_8B.fmproj/Output/Mosaic/SWFMG_8B_BS_TS_43-47_1m/SWFMG_8B_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3608,25 +3931,25 @@
           <t>SWFMG_8B_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>400</v>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -3687,7 +4010,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL6/Bathymetry/EL6A_PRELIMINARY.bag</t>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL6/Bathymetry/EL6A_PRELIMINARY.bag</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3695,25 +4018,25 @@
           <t>EL6A_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>400</v>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -3774,7 +4097,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1_Cruises/2018_10_HOG/FMGT_Projects/EL_6A.fmproj/Output/Mosaic/EL_6A_BS_TS_43-47_1m/EL_6A_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2018_10_HOG/FMGT_Projects/EL_6A.fmproj/Output/Mosaic/EL_6A_BS_TS_43-47_1m/EL_6A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3782,25 +4105,25 @@
           <t>EL_6A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>400</v>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -3861,7 +4184,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL6/Bathymetry/EL6B_PRELIMINARY.bag</t>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Elbow/EL6/Bathymetry/EL6B_PRELIMINARY.bag</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3869,25 +4192,25 @@
           <t>EL6B_PRELIMINARY.bag</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>400</v>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -3948,7 +4271,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1_Cruises/2018_10_HOG/FMGT_Projects/EL_6B.fmproj/Output/Mosaic/EL_6B_BS_TS_43-47_1m/EL_6B_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2018_10_HOG/FMGT_Projects/EL_6B.fmproj/Output/Mosaic/EL_6B_BS_TS_43-47_1m/EL_6B_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3956,25 +4279,25 @@
           <t>EL_6B_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>400</v>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -4035,7 +4358,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/RADIUS_1/Bathymetry/RadiusStep1A_3m.bag</t>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/RADIUS_1/Bathymetry/RadiusStep1A_3m.bag</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -4043,25 +4366,25 @@
           <t>RadiusStep1A_3m.bag</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>400</v>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -4122,7 +4445,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>1_Cruises/2019_04A_HOG/Multibeam/FMGT_Projects/RADIUS_1A.fmproj/Output/Mosaic/RADIUS_1A_BS_TS_43-47_1m/RADIUS_1A_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2019_04A_HOG/Multibeam/FMGT_Projects/RADIUS_1A.fmproj/Output/Mosaic/RADIUS_1A_BS_TS_43-47_1m/RADIUS_1A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -4130,25 +4453,25 @@
           <t>RADIUS_1A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>400</v>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -4209,7 +4532,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULNA_1/Bathymetry/UlnaLedges1A_3m.bag</t>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULNA_1/Bathymetry/UlnaLedges1A_3m.bag</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -4217,25 +4540,25 @@
           <t>UlnaLedges1A_3m.bag</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>400</v>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -4296,7 +4619,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>1_Cruises/2019_04A_HOG/Multibeam/FMGT_Projects/ULNA_1A.fmproj/Output/Mosaic/ULNA_1A_BS_TS_43-47_1m/ULNA_1A_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2019_04A_HOG/Multibeam/FMGT_Projects/ULNA_1A.fmproj/Output/Mosaic/ULNA_1A_BS_TS_43-47_1m/ULNA_1A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4304,25 +4627,25 @@
           <t>ULNA_1A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>R/V Hogarth</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>400</v>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -4383,7 +4706,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/RADIUS_2/Bathymetry/RadiusStep_2A_3m.bag</t>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/RADIUS_2/Bathymetry/RadiusStep_2A_3m.bag</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4391,25 +4714,25 @@
           <t>RadiusStep_2A_3m.bag</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>400</v>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -4470,7 +4793,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/RADIUS_2A.fmproj/Output/Mosaic/RADIUS_2A_BS_TS_43-47_1m/RADIUS_2A_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/RADIUS_2A.fmproj/Output/Mosaic/RADIUS_2A_BS_TS_43-47_1m/RADIUS_2A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4478,25 +4801,25 @@
           <t>RADIUS_2A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>400</v>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -4557,7 +4880,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULBOW_1/Bathymetry/ULbow_1A_3m.bag</t>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULBOW_1/Bathymetry/ULbow_1A_3m.bag</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4565,25 +4888,25 @@
           <t>ULbow_1A_3m.bag</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>400</v>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -4644,7 +4967,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULBOW_1A.fmproj/Output/Mosaic/ULBOW_1A_BS_TS_43-47_1m/ULBOW_1A_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULBOW_1A.fmproj/Output/Mosaic/ULBOW_1A_BS_TS_43-47_1m/ULBOW_1A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4652,25 +4975,25 @@
           <t>ULBOW_1A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>400</v>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -4731,7 +5054,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULBOW_1/Bathymetry/ULbow_1B_3m.bag</t>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/Radius_Ulna_Ulbow/ULBOW_1/Bathymetry/ULbow_1B_3m.bag</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4739,25 +5062,25 @@
           <t>ULbow_1B_3m.bag</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>400</v>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="U52" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -4818,7 +5141,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULBOW_1B.fmproj/Output/Mosaic/ULBOW_1B_BS_TS_43-47_1m/ULBOW_1B_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULBOW_1B.fmproj/Output/Mosaic/ULBOW_1B_BS_TS_43-47_1m/ULBOW_1B_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4826,25 +5149,25 @@
           <t>ULBOW_1B_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>400</v>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="U53" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -4905,7 +5228,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/Qimera_Project/2019-04B-WB2-CBASS/Export/ULNA_2A_3m.bag</t>
+          <t>NFWF/1_Cruises/2019_04B_WB2_CBASS/Multibeam/Qimera_Project/2019-04B-WB2-CBASS/Export/ULNA_2A_3m.bag</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4913,25 +5236,25 @@
           <t>ULNA_2A_3m.bag</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>400</v>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="U54" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -4992,7 +5315,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULNA_2A.fmproj/Output/Mosaic/ULNA_2A_BS_TS_43-47_1m/ULNA_2A_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULNA_2A.fmproj/Output/Mosaic/ULNA_2A_BS_TS_43-47_1m/ULNA_2A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -5000,25 +5323,25 @@
           <t>ULNA_2A_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>400</v>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="U55" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -5033,22 +5356,33 @@
           <t>Edges</t>
         </is>
       </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56">
+        <v>2005</v>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>Bathymetry</t>
         </is>
       </c>
       <c r="I56">
-        <v>0.0009999999999999983</v>
+        <v>10</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>WGS 84</t>
+          <t>WGS_84_UTM_zone_17N</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>longlat</t>
+          <t>utm 17</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5058,17 +5392,27 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/The_Edges_Seasonal_MPA/Bathymetry/TheEdges_2005_08_corridor_001.asc</t>
+          <t>comit_wrk/crubiano/New Hi-res WFS surfaces/The Edges/2005_08 Corridor_10m.bag</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>TheEdges_2005_08_corridor_001.asc</t>
+          <t>2005_08 Corridor_10m.bag</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/The_Edges_Seasonal_MPA/Bathymetry/TheEdges_2005_08_corridor_001.asc</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>David Naar</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Reprocessed by Catalina Rubiano (Secondary version ~100m resolution)</t>
         </is>
       </c>
     </row>
@@ -5086,7 +5430,7 @@
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
@@ -5129,7 +5473,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Florida_Middle_Grounds_HAPC/Bathymetry/2006_fmg.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/Florida_Middle_Grounds_HAPC/Bathymetry/2006_fmg.asc</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -5137,30 +5481,30 @@
           <t>2006_fmg.asc</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>R/V Suncoaster</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>Kongsberg Simrad EM3000</t>
         </is>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>300</v>
       </c>
-      <c r="T58" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>https://www.ngdc.noaa.gov/ships/suncoaster/2006_07_FMG_mb.html</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="V58" t="inlineStr">
         <is>
           <t>Mapping spanned from 2000-2006</t>
         </is>
@@ -5208,7 +5552,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Florida_Middle_Grounds_HAPC/Backscatter/2006_07_fmg_5m_NAfixed.tif</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/Florida_Middle_Grounds_HAPC/Backscatter/2006_07_fmg_5m_NAfixed.tif</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -5216,30 +5560,30 @@
           <t>2006_07_fmg_5m_NAfixed.tif</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>R/V Suncoaster</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>Kongsberg Simrad EM3000</t>
         </is>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>300</v>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>https://www.ngdc.noaa.gov/ships/suncoaster/2006_07_FMG_mb.html</t>
         </is>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>Mapping spanned from 2000-2006</t>
         </is>
@@ -5271,7 +5615,7 @@
         </is>
       </c>
       <c r="I60">
-        <v>9.999999999999835e-05</v>
+        <v>9.999999999999835E-05</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5290,7 +5634,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Madison_Swanson_MPA/NEcorner/Bathymetry/2002_madison_0001.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/Madison_Swanson_MPA/NEcorner/Bathymetry/2002_madison_0001.asc</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -5298,25 +5642,25 @@
           <t>2002_madison_0001.asc</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>R/V Suncoaster</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>Kongsberg Simrad EM3000</t>
         </is>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>300</v>
       </c>
-      <c r="T60" t="inlineStr">
+      <c r="U60" t="inlineStr">
         <is>
           <t>https://www.ncei.noaa.gov/data/oceans/coris/data/NOAA/nmfs/sefsc/bathymetry/westfloridashelf/MadisonSwanson2002/</t>
         </is>
@@ -5372,7 +5716,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Madison_Swanson_MPA/NEcorner/Backscatter/2002_07_Madison_5m_NAFixed.tif</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/Madison_Swanson_MPA/NEcorner/Backscatter/2002_07_Madison_5m_NAFixed.tif</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5380,25 +5724,25 @@
           <t>2002_07_Madison_5m_NAFixed.tif</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>R/V Suncoaster</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>Kongsberg Simrad EM3000</t>
         </is>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>300</v>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="U61" t="inlineStr">
         <is>
           <t>https://www.ncei.noaa.gov/data/oceans/coris/data/NOAA/nmfs/sefsc/bathymetry/westfloridashelf/MadisonSwanson2002/</t>
         </is>
@@ -5438,7 +5782,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Twin_Ridges/Bathymetry/2002_twin_ridges_0001.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/Twin_Ridges/Bathymetry/2002_twin_ridges_0001.asc</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5446,25 +5790,25 @@
           <t>2002_twin_ridges_0001.asc</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>R/V Suncoaster</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>Kongsberg Simrad EM3000</t>
         </is>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>300</v>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>https://www.ncei.noaa.gov/data/oceans/coris/data/NOAA/nmfs/sefsc/bathymetry/westfloridashelf/TwinRidges2002/</t>
         </is>
@@ -5509,7 +5853,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Twin_Ridges/Backscatter/2002_07_twin_ridges_5m.tif</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/Twin_Ridges/Backscatter/2002_07_twin_ridges_5m.tif</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5517,25 +5861,25 @@
           <t>2002_07_twin_ridges_5m.tif</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>R/V Suncoaster</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>Kongsberg Simrad EM3000</t>
         </is>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>300</v>
       </c>
-      <c r="T63" t="inlineStr">
+      <c r="U63" t="inlineStr">
         <is>
           <t>https://www.ncei.noaa.gov/data/oceans/coris/data/NOAA/nmfs/sefsc/bathymetry/westfloridashelf/TwinRidges2002/</t>
         </is>
@@ -5585,7 +5929,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/761401_Florida_Trackline.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/761401_Florida_Trackline.asc</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5593,12 +5937,12 @@
           <t>761401_Florida_Trackline.asc</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -5648,7 +5992,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block181_4mSa.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block181_4mSa.asc</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5656,12 +6000,12 @@
           <t>Block181_4mSa.asc</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -5711,7 +6055,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block197_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block197_4m.asc</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5719,12 +6063,12 @@
           <t>Block197_4m.asc</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -5774,7 +6118,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block240_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block240_4m.asc</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5782,12 +6126,12 @@
           <t>Block240_4m.asc</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -5837,7 +6181,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block031E_5m_Cube.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block031E_5m_Cube.asc</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5845,12 +6189,12 @@
           <t>Block031E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -5900,7 +6244,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block032E_5m_Cube.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block032E_5m_Cube.asc</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5908,12 +6252,12 @@
           <t>Block032E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -5963,7 +6307,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block105E_5m_Cube.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block105E_5m_Cube.asc</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5971,12 +6315,12 @@
           <t>Block105E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6026,7 +6370,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125_145E_5m_Cube.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125_145E_5m_Cube.asc</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -6034,12 +6378,12 @@
           <t>Block125_145E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6089,7 +6433,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125E_5m_Cube.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125E_5m_Cube.asc</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -6097,12 +6441,12 @@
           <t>Block125E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6152,7 +6496,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125E_N.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125E_N.asc</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -6160,12 +6504,12 @@
           <t>Block125E_N.asc</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="Q73" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6215,7 +6559,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125E_S.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block125E_S.asc</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -6223,12 +6567,12 @@
           <t>Block125E_S.asc</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6278,7 +6622,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block145E.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block145E.asc</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -6286,12 +6630,12 @@
           <t>Block145E.asc</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="S75" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6341,7 +6685,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block197E.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block197E.asc</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -6349,12 +6693,12 @@
           <t>Block197E.asc</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="S76" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6404,7 +6748,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block226E_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block226E_4m.asc</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -6412,12 +6756,12 @@
           <t>Block226E_4m.asc</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="Q77" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="S77" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6467,7 +6811,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block238E_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block238E_4m.asc</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6475,12 +6819,12 @@
           <t>Block238E_4m.asc</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6530,7 +6874,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block240_D266_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block240_D266_4m.asc</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6538,12 +6882,12 @@
           <t>Block240_D266_4m.asc</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="Q79" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="S79" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6593,7 +6937,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block240-227_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block240-227_4m.asc</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6601,12 +6945,12 @@
           <t>Block240-227_4m.asc</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6656,7 +7000,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block253E_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block253E_4m.asc</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6664,12 +7008,12 @@
           <t>Block253E_4m.asc</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr">
+      <c r="Q81" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R81" t="inlineStr">
+      <c r="S81" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6719,7 +7063,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254a_Day264_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254a_Day264_4m.asc</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6727,12 +7071,12 @@
           <t>Block254a_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr">
+      <c r="S82" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6782,7 +7126,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254b_Day264_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254b_Day264_4m.asc</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6790,12 +7134,12 @@
           <t>Block254b_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="Q83" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="S83" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6845,7 +7189,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254c_Day264_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254c_Day264_4m.asc</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6853,12 +7197,12 @@
           <t>Block254c_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr">
+      <c r="Q84" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6908,7 +7252,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254d_Day264_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254d_Day264_4m.asc</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6916,12 +7260,12 @@
           <t>Block254d_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="Q85" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr">
+      <c r="S85" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -6971,7 +7315,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254E_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block254E_4m.asc</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6979,12 +7323,12 @@
           <t>Block254E_4m.asc</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="Q86" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr">
+      <c r="S86" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7034,7 +7378,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block268_Day265_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block268_Day265_4m.asc</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -7042,12 +7386,12 @@
           <t>Block268_Day265_4m.asc</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="Q87" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr">
+      <c r="S87" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7097,7 +7441,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block296_Day264_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block296_Day264_4m.asc</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -7105,12 +7449,12 @@
           <t>Block296_Day264_4m.asc</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="Q88" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="S88" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7160,7 +7504,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block345E_5m_Cube.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block345E_5m_Cube.asc</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -7168,12 +7512,12 @@
           <t>Block345E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="Q89" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr">
+      <c r="S89" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7223,7 +7567,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block371E_5m_Cube.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block371E_5m_Cube.asc</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7231,12 +7575,12 @@
           <t>Block371E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr">
+      <c r="Q90" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr">
+      <c r="S90" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7286,7 +7630,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block372E.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block372E.asc</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -7294,12 +7638,12 @@
           <t>Block372E.asc</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr">
+      <c r="Q91" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr">
+      <c r="S91" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7349,7 +7693,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block372E_2.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block372E_2.asc</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7357,12 +7701,12 @@
           <t>Block372E_2.asc</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="Q92" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr">
+      <c r="S92" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7412,7 +7756,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block373E.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block373E.asc</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7420,12 +7764,12 @@
           <t>Block373E.asc</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
+      <c r="Q93" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr">
+      <c r="S93" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7475,7 +7819,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block403_Day262_CamSites_2m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block403_Day262_CamSites_2m.asc</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7483,12 +7827,12 @@
           <t>Block403_Day262_CamSites_2m.asc</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr">
+      <c r="Q94" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr">
+      <c r="S94" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7538,7 +7882,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block403_Day263_CamSites_2m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block403_Day263_CamSites_2m.asc</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7546,12 +7890,12 @@
           <t>Block403_Day263_CamSites_2m.asc</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr">
+      <c r="Q95" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr">
+      <c r="S95" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7601,7 +7945,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block404_Day263_CamSites_2m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block404_Day263_CamSites_2m.asc</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7609,12 +7953,12 @@
           <t>Block404_Day263_CamSites_2m.asc</t>
         </is>
       </c>
-      <c r="P96" t="inlineStr">
+      <c r="Q96" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr">
+      <c r="S96" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7664,7 +8008,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block405_Day262_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block405_Day262_4m.asc</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7672,12 +8016,12 @@
           <t>Block405_Day262_4m.asc</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr">
+      <c r="Q97" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr">
+      <c r="S97" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7727,7 +8071,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block405_Day263_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block405_Day263_4m.asc</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7735,12 +8079,12 @@
           <t>Block405_Day263_4m.asc</t>
         </is>
       </c>
-      <c r="P98" t="inlineStr">
+      <c r="Q98" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr">
+      <c r="S98" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7790,7 +8134,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block423E_4m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block423E_4m.asc</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7798,12 +8142,12 @@
           <t>Block423E_4m.asc</t>
         </is>
       </c>
-      <c r="P99" t="inlineStr">
+      <c r="Q99" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R99" t="inlineStr">
+      <c r="S99" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7853,7 +8197,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block495E_8m.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block495E_8m.asc</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7861,12 +8205,12 @@
           <t>Block495E_8m.asc</t>
         </is>
       </c>
-      <c r="P100" t="inlineStr">
+      <c r="Q100" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr">
+      <c r="S100" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7916,7 +8260,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block525E.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block525E.asc</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7924,12 +8268,12 @@
           <t>Block525E.asc</t>
         </is>
       </c>
-      <c r="P101" t="inlineStr">
+      <c r="Q101" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr">
+      <c r="S101" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -7979,7 +8323,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block553E.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block553E.asc</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7987,12 +8331,12 @@
           <t>Block553E.asc</t>
         </is>
       </c>
-      <c r="P102" t="inlineStr">
+      <c r="Q102" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R102" t="inlineStr">
+      <c r="S102" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -8042,7 +8386,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block84E_5m_Cube.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/NOAA_NMFS_Surfaces_ME70/Block84E_5m_Cube.asc</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -8050,12 +8394,12 @@
           <t>Block84E_5m_Cube.asc</t>
         </is>
       </c>
-      <c r="P103" t="inlineStr">
+      <c r="Q103" t="inlineStr">
         <is>
           <t>NMFS</t>
         </is>
       </c>
-      <c r="R103" t="inlineStr">
+      <c r="S103" t="inlineStr">
         <is>
           <t>Simrad ME70</t>
         </is>
@@ -8105,7 +8449,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Bathymetry/Central_Bathymetry/cenbathg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Bathymetry/Central_Bathymetry/cenbathg/w001001.adf</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -8113,25 +8457,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P104" t="inlineStr">
+      <c r="Q104" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q104" t="inlineStr">
+      <c r="R104" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R104" t="inlineStr">
+      <c r="S104" t="inlineStr">
         <is>
           <t>Kongsberg Dual-head EM3000</t>
         </is>
       </c>
-      <c r="S104">
+      <c r="T104">
         <v>300</v>
       </c>
-      <c r="T104" t="inlineStr">
+      <c r="U104" t="inlineStr">
         <is>
           <t>https://pubs.usgs.gov/of/2003/0007/data.html</t>
         </is>
@@ -8181,7 +8525,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Backscatter/Central_Backscatter/cenmosg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Backscatter/Central_Backscatter/cenmosg/w001001.adf</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -8189,25 +8533,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P105" t="inlineStr">
+      <c r="Q105" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q105" t="inlineStr">
+      <c r="R105" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R105" t="inlineStr">
+      <c r="S105" t="inlineStr">
         <is>
           <t>Kongsberg Dual-head EM3000</t>
         </is>
       </c>
-      <c r="S105">
+      <c r="T105">
         <v>300</v>
       </c>
-      <c r="T105" t="inlineStr">
+      <c r="U105" t="inlineStr">
         <is>
           <t>https://pubs.usgs.gov/of/2003/0007/data.html</t>
         </is>
@@ -8257,7 +8601,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Bathymetry/Northern_Bathymetry/nthbathg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Bathymetry/Northern_Bathymetry/nthbathg/w001001.adf</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8265,25 +8609,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr">
+      <c r="Q106" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q106" t="inlineStr">
+      <c r="R106" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R106" t="inlineStr">
+      <c r="S106" t="inlineStr">
         <is>
           <t>Kongsberg Dual-head EM3000</t>
         </is>
       </c>
-      <c r="S106">
+      <c r="T106">
         <v>300</v>
       </c>
-      <c r="T106" t="inlineStr">
+      <c r="U106" t="inlineStr">
         <is>
           <t>https://pubs.usgs.gov/of/2003/0007/data.html</t>
         </is>
@@ -8333,7 +8677,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Backscatter/Northern_Backscatter/nthmosg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Backscatter/Northern_Backscatter/nthmosg/w001001.adf</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8341,25 +8685,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P107" t="inlineStr">
+      <c r="Q107" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q107" t="inlineStr">
+      <c r="R107" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R107" t="inlineStr">
+      <c r="S107" t="inlineStr">
         <is>
           <t>Kongsberg Dual-head EM3000</t>
         </is>
       </c>
-      <c r="S107">
+      <c r="T107">
         <v>300</v>
       </c>
-      <c r="T107" t="inlineStr">
+      <c r="U107" t="inlineStr">
         <is>
           <t>https://pubs.usgs.gov/of/2003/0007/data.html</t>
         </is>
@@ -8409,7 +8753,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Bathymetry/Southern_Bathymetry/sthbathg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Bathymetry/Southern_Bathymetry/sthbathg/w001001.adf</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8417,25 +8761,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P108" t="inlineStr">
+      <c r="Q108" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q108" t="inlineStr">
+      <c r="R108" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R108" t="inlineStr">
+      <c r="S108" t="inlineStr">
         <is>
           <t>Kongsberg Dual-head EM3000</t>
         </is>
       </c>
-      <c r="S108">
+      <c r="T108">
         <v>300</v>
       </c>
-      <c r="T108" t="inlineStr">
+      <c r="U108" t="inlineStr">
         <is>
           <t>https://pubs.usgs.gov/of/2003/0007/data.html</t>
         </is>
@@ -8485,7 +8829,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Backscatter/Southern_Backscatter/sthmosg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/DeSoto_Canyon/Backscatter/Southern_Backscatter/sthmosg/w001001.adf</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8493,25 +8837,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P109" t="inlineStr">
+      <c r="Q109" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q109" t="inlineStr">
+      <c r="R109" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R109" t="inlineStr">
+      <c r="S109" t="inlineStr">
         <is>
           <t>Kongsberg Dual-head EM3000</t>
         </is>
       </c>
-      <c r="S109">
+      <c r="T109">
         <v>300</v>
       </c>
-      <c r="T109" t="inlineStr">
+      <c r="U109" t="inlineStr">
         <is>
           <t>https://pubs.usgs.gov/of/2003/0007/data.html</t>
         </is>
@@ -8559,7 +8903,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Pinnacles/Bathymetry/bathyg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/Pinnacles/Bathymetry/bathyg/w001001.adf</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8567,12 +8911,12 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P110" t="inlineStr">
+      <c r="Q110" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="T110" t="inlineStr">
+      <c r="U110" t="inlineStr">
         <is>
           <t>https://pubs.usgs.gov/of/2002/0006/site/data.html</t>
         </is>
@@ -8620,7 +8964,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Pinnacles/Backscatter/mosg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/Pinnacles/Backscatter/mosg/w001001.adf</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8628,12 +8972,12 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P111" t="inlineStr">
+      <c r="Q111" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="T111" t="inlineStr">
+      <c r="U111" t="inlineStr">
         <is>
           <t>https://pubs.usgs.gov/of/2002/0006/site/data.html</t>
         </is>
@@ -8678,7 +9022,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Pulley_Ridge/Bathymetry/allpr_filcrop.asc</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/Pulley_Ridge/Bathymetry/allpr_filcrop.asc</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8686,25 +9030,25 @@
           <t>allpr_filcrop.asc</t>
         </is>
       </c>
-      <c r="P112" t="inlineStr">
+      <c r="Q112" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q112" t="inlineStr">
+      <c r="R112" t="inlineStr">
         <is>
           <t>R/V's Bellows &amp; Suncoaster</t>
         </is>
       </c>
-      <c r="R112" t="inlineStr">
+      <c r="S112" t="inlineStr">
         <is>
           <t>Kongsberg Simrad EM3000</t>
         </is>
       </c>
-      <c r="S112">
+      <c r="T112">
         <v>300</v>
       </c>
-      <c r="T112" t="inlineStr">
+      <c r="U112" t="inlineStr">
         <is>
           <t>https://woodshole.er.usgs.gov/pubs/of2005-1089/data/bathymetry/</t>
         </is>
@@ -8724,25 +9068,25 @@
           <t>Backscatter</t>
         </is>
       </c>
-      <c r="P113" t="inlineStr">
+      <c r="Q113" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q113" t="inlineStr">
+      <c r="R113" t="inlineStr">
         <is>
           <t>R/V's Bellows &amp; Suncoaster</t>
         </is>
       </c>
-      <c r="R113" t="inlineStr">
+      <c r="S113" t="inlineStr">
         <is>
           <t>Kongsberg Simrad EM3000</t>
         </is>
       </c>
-      <c r="S113">
+      <c r="T113">
         <v>300</v>
       </c>
-      <c r="T113" t="inlineStr">
+      <c r="U113" t="inlineStr">
         <is>
           <t>https://woodshole.er.usgs.gov/pubs/of2005-1089/data/bathymetry/</t>
         </is>
@@ -8787,7 +9131,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Steamboat_Lumps_MPA/Bathymetry/sbbathyg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/Steamboat_Lumps_MPA/Bathymetry/sbbathyg/w001001.adf</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8795,25 +9139,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P114" t="inlineStr">
+      <c r="Q114" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q114" t="inlineStr">
+      <c r="R114" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R114" t="inlineStr">
+      <c r="S114" t="inlineStr">
         <is>
           <t>Kongsberg EM1002</t>
         </is>
       </c>
-      <c r="S114">
+      <c r="T114">
         <v>95</v>
       </c>
-      <c r="T114" t="inlineStr">
+      <c r="U114" t="inlineStr">
         <is>
           <t>https://www.ncei.noaa.gov/data/oceans/coris/data/NOAA/nmfs/sefsc/bathymetry/westfloridashelf/SteamboatLumps2001/</t>
         </is>
@@ -8858,7 +9202,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Steamboat_Lumps_MPA/Backscatter/sbmosg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/Steamboat_Lumps_MPA/Backscatter/sbmosg/w001001.adf</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8866,25 +9210,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P115" t="inlineStr">
+      <c r="Q115" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q115" t="inlineStr">
+      <c r="R115" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R115" t="inlineStr">
+      <c r="S115" t="inlineStr">
         <is>
           <t>Kongsberg EM1002</t>
         </is>
       </c>
-      <c r="S115">
+      <c r="T115">
         <v>95</v>
       </c>
-      <c r="T115" t="inlineStr">
+      <c r="U115" t="inlineStr">
         <is>
           <t>https://www.ncei.noaa.gov/data/oceans/coris/data/NOAA/nmfs/sefsc/bathymetry/westfloridashelf/SteamboatLumps2001/</t>
         </is>
@@ -8934,7 +9278,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Central/Bathymetry/cbathyg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Central/Bathymetry/cbathyg/w001001.adf</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8942,25 +9286,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P116" t="inlineStr">
+      <c r="Q116" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q116" t="inlineStr">
+      <c r="R116" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R116" t="inlineStr">
+      <c r="S116" t="inlineStr">
         <is>
           <t>Kongsberg EM1002</t>
         </is>
       </c>
-      <c r="S116">
+      <c r="T116">
         <v>95</v>
       </c>
-      <c r="T116" t="inlineStr">
+      <c r="U116" t="inlineStr">
         <is>
           <t>https://www.ncei.noaa.gov/data/oceans/coris/data/NOAA/nmfs/sefsc/bathymetry/westfloridashelf/CentralShelf2001/</t>
         </is>
@@ -9010,7 +9354,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Central/Backscatter/cmosg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Central/Backscatter/cmosg/w001001.adf</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -9018,25 +9362,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P117" t="inlineStr">
+      <c r="Q117" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q117" t="inlineStr">
+      <c r="R117" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R117" t="inlineStr">
+      <c r="S117" t="inlineStr">
         <is>
           <t>Kongsberg EM1002</t>
         </is>
       </c>
-      <c r="S117">
+      <c r="T117">
         <v>95</v>
       </c>
-      <c r="T117" t="inlineStr">
+      <c r="U117" t="inlineStr">
         <is>
           <t>https://www.ncei.noaa.gov/data/oceans/coris/data/NOAA/nmfs/sefsc/bathymetry/westfloridashelf/CentralShelf2001/</t>
         </is>
@@ -9086,7 +9430,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Northern/Bathymetry/nbathyg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Northern/Bathymetry/nbathyg/w001001.adf</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -9094,25 +9438,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P118" t="inlineStr">
+      <c r="Q118" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q118" t="inlineStr">
+      <c r="R118" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R118" t="inlineStr">
+      <c r="S118" t="inlineStr">
         <is>
           <t>Kongsberg EM1002</t>
         </is>
       </c>
-      <c r="S118">
+      <c r="T118">
         <v>95</v>
       </c>
-      <c r="T118" t="inlineStr">
+      <c r="U118" t="inlineStr">
         <is>
           <t>https://www.ncei.noaa.gov/data/oceans/coris/data/NOAA/nmfs/sefsc/bathymetry/westfloridashelf/NorthernShelf2001/</t>
         </is>
@@ -9162,7 +9506,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Northern/Backscatter/nmosg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Northern/Backscatter/nmosg/w001001.adf</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -9170,25 +9514,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P119" t="inlineStr">
+      <c r="Q119" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q119" t="inlineStr">
+      <c r="R119" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R119" t="inlineStr">
+      <c r="S119" t="inlineStr">
         <is>
           <t>Kongsberg EM1002</t>
         </is>
       </c>
-      <c r="S119">
+      <c r="T119">
         <v>95</v>
       </c>
-      <c r="T119" t="inlineStr">
+      <c r="U119" t="inlineStr">
         <is>
           <t>https://www.ncei.noaa.gov/data/oceans/coris/data/NOAA/nmfs/sefsc/bathymetry/westfloridashelf/NorthernShelf2001/</t>
         </is>
@@ -9238,7 +9582,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Southern/Bathymetry/sbathyg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Southern/Bathymetry/sbathyg/w001001.adf</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9246,25 +9590,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P120" t="inlineStr">
+      <c r="Q120" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q120" t="inlineStr">
+      <c r="R120" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R120" t="inlineStr">
+      <c r="S120" t="inlineStr">
         <is>
           <t>Kongsberg EM1002</t>
         </is>
       </c>
-      <c r="S120">
+      <c r="T120">
         <v>95</v>
       </c>
-      <c r="T120" t="inlineStr">
+      <c r="U120" t="inlineStr">
         <is>
           <t>https://www.ncei.noaa.gov/data/oceans/coris/data/NOAA/nmfs/sefsc/bathymetry/westfloridashelf/SouthernShelf2001/</t>
         </is>
@@ -9314,7 +9658,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Southern/Backscatter/smosg/w001001.adf</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/West_Florida_Shelf/Southern/Backscatter/smosg/w001001.adf</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9322,25 +9666,25 @@
           <t>w001001.adf</t>
         </is>
       </c>
-      <c r="P121" t="inlineStr">
+      <c r="Q121" t="inlineStr">
         <is>
           <t>USGS</t>
         </is>
       </c>
-      <c r="Q121" t="inlineStr">
+      <c r="R121" t="inlineStr">
         <is>
           <t>R/V Moana Wave</t>
         </is>
       </c>
-      <c r="R121" t="inlineStr">
+      <c r="S121" t="inlineStr">
         <is>
           <t>Kongsberg EM1002</t>
         </is>
       </c>
-      <c r="S121">
+      <c r="T121">
         <v>95</v>
       </c>
-      <c r="T121" t="inlineStr">
+      <c r="U121" t="inlineStr">
         <is>
           <t>https://www.ncei.noaa.gov/data/oceans/coris/data/NOAA/nmfs/sefsc/bathymetry/westfloridashelf/SouthernShelf2001/</t>
         </is>
@@ -9401,7 +9745,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/Qimera_Project/2019-04B-WB2-CBASS/Export/ULNA_2B_3m.bag</t>
+          <t>NFWF/1_Cruises/2019_04B_WB2_CBASS/Multibeam/Qimera_Project/2019-04B-WB2-CBASS/Export/ULNA_2B_3m.bag</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9409,25 +9753,25 @@
           <t>ULNA_2B_3m.bag</t>
         </is>
       </c>
-      <c r="P122" t="inlineStr">
+      <c r="Q122" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q122" t="inlineStr">
+      <c r="R122" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R122" t="inlineStr">
+      <c r="S122" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S122">
+      <c r="T122">
         <v>400</v>
       </c>
-      <c r="T122" t="inlineStr">
+      <c r="U122" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -9488,7 +9832,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULNA_2B.fmproj/Output/Mosaic/ULNA_2B_BS_TS_43-47_1m/ULNA_2B_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2019_04B_WB2_CBASS/Multibeam/FMGT_Projects/ULNA_2B.fmproj/Output/Mosaic/ULNA_2B_BS_TS_43-47_1m/ULNA_2B_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9496,25 +9840,25 @@
           <t>ULNA_2B_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P123" t="inlineStr">
+      <c r="Q123" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q123" t="inlineStr">
+      <c r="R123" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R123" t="inlineStr">
+      <c r="S123" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat T50-R Dual Head</t>
         </is>
       </c>
-      <c r="S123">
+      <c r="T123">
         <v>400</v>
       </c>
-      <c r="T123" t="inlineStr">
+      <c r="U123" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -9580,7 +9924,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>1_Cruises/2018_09_WB2_CBASS/Multibeam/Qimera_Project/2018-09-WB2-CBASS/Export/1809_WFMG3AB_2m.bag</t>
+          <t>NFWF/1_Cruises/2018_09_WB2_CBASS/Multibeam/Qimera_Project/2018-09-WB2-CBASS/Export/1809_WFMG3AB_2m.bag</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9588,25 +9932,25 @@
           <t>1809_WFMG3AB_2m.bag</t>
         </is>
       </c>
-      <c r="P124" t="inlineStr">
+      <c r="Q124" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q124" t="inlineStr">
+      <c r="R124" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R124" t="inlineStr">
+      <c r="S124" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S124">
+      <c r="T124">
         <v>400</v>
       </c>
-      <c r="T124" t="inlineStr">
+      <c r="U124" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -9672,7 +10016,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>1_Cruises/2018_09_WB2_CBASS/Multibeam/FMGT_Projects/SWFMG_8C.fmproj/Output/Mosaic/SWFMG_8C_BS_TS_43-47_1m/SWFMG_8C_BS_TS_43-47_1m.tif</t>
+          <t>NFWF/1_Cruises/2018_09_WB2_CBASS/Multibeam/FMGT_Projects/SWFMG_8C.fmproj/Output/Mosaic/SWFMG_8C_BS_TS_43-47_1m/SWFMG_8C_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9680,25 +10024,25 @@
           <t>SWFMG_8C_BS_TS_43-47_1m.tif</t>
         </is>
       </c>
-      <c r="P125" t="inlineStr">
+      <c r="Q125" t="inlineStr">
         <is>
           <t>CSCAMP</t>
         </is>
       </c>
-      <c r="Q125" t="inlineStr">
+      <c r="R125" t="inlineStr">
         <is>
           <t>R/V Weatherbird II</t>
         </is>
       </c>
-      <c r="R125" t="inlineStr">
+      <c r="S125" t="inlineStr">
         <is>
           <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
-      <c r="S125">
+      <c r="T125">
         <v>400</v>
       </c>
-      <c r="T125" t="inlineStr">
+      <c r="U125" t="inlineStr">
         <is>
           <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
         </is>
@@ -9749,7 +10093,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Panama_City/ascii/bathymetry/2007_02_Panama_City_bathy_UTM16N.tif</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/Panama_City/ascii/bathymetry/2007_02_Panama_City_bathy_UTM16N.tif</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9757,22 +10101,22 @@
           <t>2007_02_Panama_City_bathy_UTM16N.tif</t>
         </is>
       </c>
-      <c r="P126" t="inlineStr">
+      <c r="Q126" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
-      <c r="Q126" t="inlineStr">
+      <c r="R126" t="inlineStr">
         <is>
           <t>R/V Suncoaster</t>
         </is>
       </c>
-      <c r="R126" t="inlineStr">
+      <c r="S126" t="inlineStr">
         <is>
           <t>Kongsberg Simrad EM3000</t>
         </is>
       </c>
-      <c r="S126">
+      <c r="T126">
         <v>300</v>
       </c>
     </row>
@@ -9821,7 +10165,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2_Projects/GIS/G_Multibeam_Other_Sources/Panama_City/ascii/backscatter/2007_02_Panama_City_bs_UTM16N.tif</t>
+          <t>NFWF/2_Projects/GIS/G_Multibeam_Other_Sources/Panama_City/ascii/backscatter/2007_02_Panama_City_bs_UTM16N.tif</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9829,23 +10173,450 @@
           <t>2007_02_Panama_City_bs_UTM16N.tif</t>
         </is>
       </c>
-      <c r="P127" t="inlineStr">
+      <c r="Q127" t="inlineStr">
         <is>
           <t>David Naar</t>
         </is>
       </c>
-      <c r="Q127" t="inlineStr">
+      <c r="R127" t="inlineStr">
         <is>
           <t>R/V Suncoaster</t>
         </is>
       </c>
-      <c r="R127" t="inlineStr">
+      <c r="S127" t="inlineStr">
         <is>
           <t>Kongsberg Simrad EM3000</t>
         </is>
       </c>
-      <c r="S127">
+      <c r="T127">
         <v>300</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SWFMG</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>7B</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>WFMG2</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2017_10_WB2_CBASS</t>
+        </is>
+      </c>
+      <c r="F128">
+        <v>10</v>
+      </c>
+      <c r="G128">
+        <v>2017</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="I128">
+        <v>4</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>WGS_84_UTM_zone_16N</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>NFWF/1_Cruises/2017_10_WB2_CBASS/Multibeam/Qimera_Project/2017-10-WB2/Export/BAGS/SWFMG7B.bag</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>SWFMG7B.bag</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>NFWF/2_Projects/GIS/C_Multibeam_C-SCAMP/SWFMG/SWFMG7_WFMG2/Bathymetry/WFMG2_4mSwathBathy.bag</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>CSCAMP</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>R/V Weatherbird II</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>Teledyne Reson SeaBat 7125</t>
+        </is>
+      </c>
+      <c r="T128">
+        <v>400</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>Secondary version has 7A and 7B in one file</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>SWFMG</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>7B</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>WFMG2</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2017_10_WB2_CBASS</t>
+        </is>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129">
+        <v>2017</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Backscatter</t>
+        </is>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>WGS 84 / UTM zone 16N</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>utm 16</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>NFWF/1_Cruises/2017_10_WB2_CBASS/Multibeam/FMGT_Projects/SWFMG7B.fmproj/Output/Mosaic/SWFMG_7B_BS_TS_43-47_1m/SWFMG_7B_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>SWFMG_7B_BS_TS_43-47_1m.tif</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>CSCAMP</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>R/V Weatherbird II</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>Teledyne Reson SeaBat 7125</t>
+        </is>
+      </c>
+      <c r="T129">
+        <v>400</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>https://zenodo.org/doi/10.5281/zenodo.8381009</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Pulley Ridge</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Pulley Ridge (Extended)</t>
+        </is>
+      </c>
+      <c r="G130">
+        <v>2009</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="I130">
+        <v>10</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>WGS_84_UTM_zone_17N</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>utm 17</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>WGS84</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>comit_wrk/crubiano/New Hi-res WFS surfaces/Pulley Ridge (Full footprint)/S_Pulley_Ridge_West_10m.bag</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>S_Pulley_Ridge_West_10m.bag</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>David Naar</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>R/V's Bellows &amp; Suncoaster</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>Kongsberg Simrad EM 3000</t>
+        </is>
+      </c>
+      <c r="T130">
+        <v>300</v>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>Data spans from 1999-2009 (Reprocessed by Catalina Rubiano)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Pulley Ridge</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Pulley Ridge (Extended)</t>
+        </is>
+      </c>
+      <c r="G131">
+        <v>2009</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Backscatter</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>David Naar</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>R/V's Bellows &amp; Suncoaster</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>Kongsberg Simrad EM 3001</t>
+        </is>
+      </c>
+      <c r="T131">
+        <v>300</v>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>Data spans from 1999-2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>MGT22</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2022_10_WB2_MGT22</t>
+        </is>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
+      <c r="G132">
+        <v>2022</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Bathymetry</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>COMIT</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>R/V Weatherbird II</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>R2Sonic 2026</t>
+        </is>
+      </c>
+      <c r="T132">
+        <v>400</v>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>Collected by Marine Geophysical Tools Class at USF. Processing Not completed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>MGT22</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2022_10_WB2_MGT22</t>
+        </is>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+      <c r="G133">
+        <v>2022</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Backscatter</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>COMIT</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>R/V Weatherbird II</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>R2Sonic 2026</t>
+        </is>
+      </c>
+      <c r="T133">
+        <v>400</v>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>Collected by Marine Geophysical Tools Class at USF. Processing Not completed.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Multibeam_metadata.xlsx
+++ b/Multibeam_metadata.xlsx
@@ -1837,7 +1837,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Teledyne Reson SeaBat 7126</t>
+          <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
       <c r="T16">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Teledyne Reson SeaBat 7127</t>
+          <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
       <c r="T17">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Teledyne Reson SeaBat 7126</t>
+          <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
       <c r="T22">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Teledyne Reson SeaBat 7127</t>
+          <t>Teledyne Reson SeaBat 7125</t>
         </is>
       </c>
       <c r="T23">
@@ -10458,7 +10458,7 @@
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>Kongsberg Simrad EM 3000</t>
+          <t>Kongsberg Simrad EM3000</t>
         </is>
       </c>
       <c r="T130">
@@ -10509,7 +10509,7 @@
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>Kongsberg Simrad EM 3001</t>
+          <t>Kongsberg Simrad EM3000</t>
         </is>
       </c>
       <c r="T131">
